--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_5_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_5_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001152627571767706</v>
+        <v>9.502549381001923e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001152627571767706</v>
+        <v>9.502549381001923e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.95369638724272</v>
+        <v>49.44967580359733</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[24.914341154670183, 74.99305161981526]</t>
+          <t>[25.261846950842013, 73.63750465635265]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002204499337701282</v>
+        <v>0.0001614438271662078</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002204499337701282</v>
+        <v>0.0001614438271662078</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 2.320816194543811]</t>
+          <t>[0.8365001460008861, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.261854628926585e-06</v>
+        <v>2.121576289471072e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>2.261854628926585e-06</v>
+        <v>2.121576289471072e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>61.8016082717468</v>
+        <v>58.97083940846013</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.67733949218348, 76.92587705131012]</t>
+          <t>[44.1867568438078, 73.75492197311246]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.597875165515461e-10</v>
+        <v>3.07740055660588e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.597875165515461e-10</v>
+        <v>3.07740055660588e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.73483483483509</v>
+        <v>18.6503303303306</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.30540540540563</v>
+        <v>16.27047047047071</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.16426426426456</v>
+        <v>21.0301901901905</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001189017455697217</v>
+        <v>0.0003709944738650162</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001189017455697217</v>
+        <v>0.0003709944738650162</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>39.68648055045968</v>
+        <v>44.78435077204544</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[15.508156331171534, 63.86480476974782]</t>
+          <t>[20.631214518838874, 68.937487025252]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001864763120445145</v>
+        <v>0.0005270479758505697</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001864763120445145</v>
+        <v>0.0005270479758505697</v>
       </c>
       <c r="P3" t="n">
-        <v>1.490605523324887</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 2.270500396288119]</t>
+          <t>[0.823921196436963, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0003712662268098299</v>
+        <v>6.310075822080208e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003712662268098299</v>
+        <v>6.310075822080208e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>64.24623594802391</v>
+        <v>64.38872037673931</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.91740213175379, 78.57506976429403]</t>
+          <t>[49.654334984275664, 79.12310576920297]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.146993611200742e-11</v>
+        <v>2.420885714116139e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.146993611200742e-11</v>
+        <v>2.420885714116139e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.51225225225252</v>
+        <v>18.40748748748776</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.49975975975999</v>
+        <v>15.73621621621645</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.52474474474506</v>
+        <v>21.07875875875907</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.898880942829972e-05</v>
+        <v>1.048858314534051e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.898880942829972e-05</v>
+        <v>1.048858314534051e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>56.47286509810387</v>
+        <v>54.10733470928297</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[32.28282704083267, 80.66290315537508]</t>
+          <t>[34.68240582222738, 73.53226359633855]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.46355831303724e-05</v>
+        <v>1.178987408589904e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.46355831303724e-05</v>
+        <v>1.178987408589904e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.553500271144502</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 2.094395102393195]</t>
+          <t>[1.0629212381515023, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.511208889836695e-07</v>
+        <v>5.678526981967025e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>6.511208889836695e-07</v>
+        <v>5.678526981967025e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>65.18205425409546</v>
+        <v>54.25516397074079</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.904371597044296, 80.45973691114662]</t>
+          <t>[41.69495171515213, 66.81537622632945]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.799871611282924e-11</v>
+        <v>3.375899559898698e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>4.799871611282924e-11</v>
+        <v>3.375899559898698e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>18.26930930930958</v>
+        <v>18.55319319319347</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.18000000000024</v>
+        <v>16.95043043043068</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.35861861861892</v>
+        <v>20.15595595595625</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006301561048370763</v>
+        <v>0.008197987423258724</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006301561048370763</v>
+        <v>0.008197987423258724</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>47.20890465211747</v>
+        <v>35.49047396857922</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[17.957228595314376, 76.46058070892056]</t>
+          <t>[6.147198716215627, 64.83374922094282]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002184245732313128</v>
+        <v>0.01887144999595969</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002184245732313128</v>
+        <v>0.01887144999595969</v>
       </c>
       <c r="P5" t="n">
-        <v>1.213868632918579</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5597632555945786, 1.8679740102425786]</t>
+          <t>[0.1823947686768852, 1.6918687163476553]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0005219768348840859</v>
+        <v>0.01609831030322173</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0005219768348840859</v>
+        <v>0.01609831030322173</v>
       </c>
       <c r="T5" t="n">
-        <v>59.48492967543698</v>
+        <v>56.63082733280552</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.343953225984535, 75.62590612488943]</t>
+          <t>[41.199958088927005, 72.06169657668404]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.416829181228763e-09</v>
+        <v>2.684527489194011e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>2.416829181228763e-09</v>
+        <v>2.684527489194011e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>19.58120120120149</v>
+        <v>20.64164164164194</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.05459459459485</v>
+        <v>17.72752752752779</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.10780780780813</v>
+        <v>23.5557557557561</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004012134944622159</v>
+        <v>0.0001947763639074118</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004012134944622159</v>
+        <v>0.0001947763639074118</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>37.54210269540554</v>
+        <v>48.27885395111161</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[10.692500701075247, 64.39170468973583]</t>
+          <t>[20.92257619872592, 75.63513170349731]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.007189335424917731</v>
+        <v>0.000903637197666729</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007189335424917731</v>
+        <v>0.000903637197666729</v>
       </c>
       <c r="P6" t="n">
         <v>1.226447582482503</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.3585000625718102, 2.094395102393195]</t>
+          <t>[0.5849211547224238, 1.8679740102425813]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.006643778118972099</v>
+        <v>0.0003701804920763774</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006643778118972099</v>
+        <v>0.0003701804920763774</v>
       </c>
       <c r="T6" t="n">
-        <v>58.07774352463441</v>
+        <v>57.78823940228828</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.91535367869799, 73.24013337057082]</t>
+          <t>[42.660139647584245, 72.91633915699232]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.99386565222926e-10</v>
+        <v>9.656149213554954e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>8.99386565222926e-10</v>
+        <v>9.656149213554954e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>19.53261261261289</v>
+        <v>19.52456456456485</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.18000000000024</v>
+        <v>17.04756756756781</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.88522522522555</v>
+        <v>22.00156156156189</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.008470327024114e-06</v>
+        <v>1.112068375808128e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.008470327024114e-06</v>
+        <v>1.112068375808128e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.89428983123946</v>
+        <v>64.22378977144359</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[33.898928984835706, 83.88965067764322]</t>
+          <t>[31.20854536872244, 97.23903417416474]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.134741214265823e-05</v>
+        <v>0.0003007755012762736</v>
       </c>
       <c r="O7" t="n">
-        <v>2.134741214265823e-05</v>
+        <v>0.0003007755012762736</v>
       </c>
       <c r="P7" t="n">
-        <v>1.113237036407194</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 1.578658170272349]</t>
+          <t>[0.37107901213573147, 1.3019212798660407]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.684670250035047e-05</v>
+        <v>0.0007438398190278139</v>
       </c>
       <c r="S7" t="n">
-        <v>1.684670250035047e-05</v>
+        <v>0.0007438398190278139</v>
       </c>
       <c r="T7" t="n">
-        <v>61.39167210590802</v>
+        <v>70.638160814461</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.780946098825254, 75.00239811299079]</t>
+          <t>[53.87653023682674, 87.39979139209527]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.624967489685332e-12</v>
+        <v>6.791345263934545e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>9.624967489685332e-12</v>
+        <v>6.791345263934545e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>19.9699099099102</v>
+        <v>21.0301901901905</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.1721321321324</v>
+        <v>19.23315315315343</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.767687687688</v>
+        <v>22.82722722722756</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001820564339785058</v>
+        <v>7.638848031010781e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001820564339785058</v>
+        <v>7.638848031010781e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.47947702498893</v>
+        <v>54.88703151547158</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[22.68986776872194, 86.26908628125592]</t>
+          <t>[29.174185219967967, 80.59987781097519]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001223115783817841</v>
+        <v>9.076624666870536e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001223115783817841</v>
+        <v>9.076624666870536e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.088079137279347</v>
+        <v>1.163552834662886</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 1.7044476659115784]</t>
+          <t>[0.6352369529781168, 1.6918687163476545]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0009010092786758683</v>
+        <v>5.857312115842284e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0009010092786758683</v>
+        <v>5.857312115842284e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>62.94151113042162</v>
+        <v>62.62233834377223</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.96627627775648, 79.91674598308676]</t>
+          <t>[48.54627044175889, 76.69840624578556]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.072386706686302e-09</v>
+        <v>1.441113894884438e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.072386706686302e-09</v>
+        <v>1.441113894884438e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>20.06708708708738</v>
+        <v>19.7674074074077</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.68624624624651</v>
+        <v>17.72752752752779</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.44792792792825</v>
+        <v>21.8072872872876</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.879654564662658e-06</v>
+        <v>2.387722878194332e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>1.879654564662658e-06</v>
+        <v>2.387722878194332e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.24858850683214</v>
+        <v>50.09817278856205</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.67076624588671, 75.82641076777757]</t>
+          <t>[28.23159967717055, 71.96474589995356]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.10333354682124e-05</v>
+        <v>3.280605427891103e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.10333354682124e-05</v>
+        <v>3.280605427891103e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.276763380738194</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.8113422468730391, 1.7421845146033483]</t>
+          <t>[0.723289599925578, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.573295485890469e-06</v>
+        <v>7.487123534710705e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>1.573295485890469e-06</v>
+        <v>7.487123534710705e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>53.93780469136196</v>
+        <v>52.51386938004909</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.225157686315214, 66.65045169640871]</t>
+          <t>[40.42060809669914, 64.60713066339903]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.615929943303399e-11</v>
+        <v>2.903610685223157e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>5.615929943303399e-11</v>
+        <v>2.903610685223157e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>19.33825825825854</v>
+        <v>19.62170170170199</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.54048048048074</v>
+        <v>17.77609609609635</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.13603603603634</v>
+        <v>21.46730730730762</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.27000000000035</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008946585157976195</v>
+        <v>0.04841053688166663</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008946585157976195</v>
+        <v>0.04841053688166663</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>43.92354441491057</v>
+        <v>31.74150547573841</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[15.408769383535585, 72.43831944628556]</t>
+          <t>[-1.8480269990511573, 65.33103795052799]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.003310666462926992</v>
+        <v>0.06341088612083468</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003310666462926992</v>
+        <v>0.06341088612083468</v>
       </c>
       <c r="P10" t="n">
-        <v>1.13839493553504</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 1.8302371615508113]</t>
+          <t>[-0.88681594425658, 2.8113952275368126]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001821699072615868</v>
+        <v>0.3001639522840367</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001821699072615868</v>
+        <v>0.3001639522840367</v>
       </c>
       <c r="T10" t="n">
-        <v>61.39875979652732</v>
+        <v>65.53524395229536</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.96674324020175, 76.83077635285288]</t>
+          <t>[47.79175658042195, 83.27873132416877]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.295357320354242e-10</v>
+        <v>2.285988509598269e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.295357320354242e-10</v>
+        <v>2.285988509598269e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>19.87273273273302</v>
+        <v>20.5445045045048</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.20036036036061</v>
+        <v>13.40492492492512</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.54510510510543</v>
+        <v>27.68408408408449</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.046578089747285e-07</v>
+        <v>5.659487636444638e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>1.046578089747285e-07</v>
+        <v>5.659487636444638e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>64.1172757983941</v>
+        <v>55.91983888581004</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[38.91248343412727, 89.32206816266094]</t>
+          <t>[26.61309931329555, 85.22657845832452]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.08925277090222e-06</v>
+        <v>0.0003786762779709463</v>
       </c>
       <c r="O11" t="n">
-        <v>6.08925277090222e-06</v>
+        <v>0.0003786762779709463</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 0.9622896416401163]</t>
+          <t>[-0.19497371824080645, 0.9371317425122694]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.004944753207690944</v>
+        <v>0.1933925288444793</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004944753207690944</v>
+        <v>0.1933925288444793</v>
       </c>
       <c r="T11" t="n">
-        <v>62.8633177412522</v>
+        <v>74.49006393393441</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.857739161441074, 75.86889632106333]</t>
+          <t>[58.708009376704595, 90.27211849116422]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.196820420545919e-12</v>
+        <v>2.477795746358424e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.196820420545919e-12</v>
+        <v>2.477795746358424e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>23.10446446446495</v>
+        <v>23.42942942942986</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.5268468468473</v>
+        <v>21.18618618618658</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.6820820820826</v>
+        <v>25.67267267267313</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007901550202159546</v>
+        <v>0.01150111653962393</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007901550202159546</v>
+        <v>0.01150111653962393</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>33.44126542605875</v>
+        <v>33.54603227368688</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[6.279885645169692, 60.602645206947805]</t>
+          <t>[8.097502525430038, 58.994562021943715]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.01695641944617599</v>
+        <v>0.01092811149649742</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01695641944617599</v>
+        <v>0.01092811149649742</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5849211547224247</v>
+        <v>0.1069210712933453</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.18239476867688342, 1.3522370781217328]</t>
+          <t>[-0.9182633181663862, 1.1321054607530767]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1317018754405643</v>
+        <v>0.8345691563212703</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1317018754405643</v>
+        <v>0.8345691563212703</v>
       </c>
       <c r="T12" t="n">
-        <v>53.87371893880518</v>
+        <v>58.79426765736102</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[39.722168356997756, 68.0252695206126]</t>
+          <t>[43.883342008502424, 73.70519330621961]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.0549598972176e-09</v>
+        <v>4.191689217947214e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.0549598972176e-09</v>
+        <v>4.191689217947214e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>23.05357357357406</v>
+        <v>24.47627627627672</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.94922922922965</v>
+        <v>20.41351351351389</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.15791791791846</v>
+        <v>28.53903903903956</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002216660608197474</v>
+        <v>1.154212502563201e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002216660608197474</v>
+        <v>1.154212502563201e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>49.56253221786162</v>
+        <v>55.66605941734916</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[24.37039955215576, 74.75466488356747]</t>
+          <t>[31.798229201588086, 79.53388963311023]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.000262077047593845</v>
+        <v>2.50106439618758e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.000262077047593845</v>
+        <v>2.50106439618758e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04402632347373103</v>
+        <v>-0.1006315965113851</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5975001042863468, 0.6855527512338089]</t>
+          <t>[-0.6037895790683088, 0.4025263860455386]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8906810320342557</v>
+        <v>0.6889875392040841</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8906810320342557</v>
+        <v>0.6889875392040841</v>
       </c>
       <c r="T13" t="n">
-        <v>63.1160827561838</v>
+        <v>72.48239657351826</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.930789861248584, 78.30137565111902]</t>
+          <t>[58.141056595832026, 86.82373655120449]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.991119043206709e-11</v>
+        <v>2.968736367847669e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>9.991119043206709e-11</v>
+        <v>2.968736367847669e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>25.24188188188241</v>
+        <v>0.3987987987988078</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.64644644644692</v>
+        <v>-1.595195195195222</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.8373173173179</v>
+        <v>2.392792792792838</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001364150567687572</v>
+        <v>6.08766158927132e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001364150567687572</v>
+        <v>6.08766158927132e-07</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>52.32652623313844</v>
+        <v>68.3531049648426</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[24.93841581788277, 79.71463664839412]</t>
+          <t>[41.807354560633385, 94.89885536905182]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0003729523249242916</v>
+        <v>4.937538427229882e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0003729523249242916</v>
+        <v>4.937538427229882e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1761052938949232</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 0.44026323473730855]</t>
+          <t>[-0.7170001251436169, 0.16352634433100022]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5678481114467768</v>
+        <v>0.2120252954992954</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5678481114467768</v>
+        <v>0.2120252954992954</v>
       </c>
       <c r="T14" t="n">
-        <v>76.38386082808555</v>
+        <v>71.99222414158639</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[60.75250262048781, 92.01521903568329]</t>
+          <t>[56.78846071652476, 87.19598756664803]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.542055951465954e-13</v>
+        <v>2.246647312631467e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>8.542055951465954e-13</v>
+        <v>2.246647312631467e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7124724724724878</v>
+        <v>1.096696696696718</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.781181181181219</v>
+        <v>-0.6480480480480595</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.206126126126195</v>
+        <v>2.841441441441495</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005675862301123935</v>
+        <v>4.970160696837755e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005675862301123935</v>
+        <v>4.970160696837755e-05</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>39.44033359947174</v>
+        <v>58.96538134798764</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[7.530893106486943, 71.34977409245653]</t>
+          <t>[27.875464854672117, 90.05529784130316]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.01655747100357785</v>
+        <v>0.0004064326795027995</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01655747100357785</v>
+        <v>0.0004064326795027995</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.792473822527155</v>
+        <v>-0.4905790329930007</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.496894998106848, -0.08805264694746207]</t>
+          <t>[-1.0692107129334634, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.02831859753591637</v>
+        <v>0.09460028812555188</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02831859753591637</v>
+        <v>0.09460028812555188</v>
       </c>
       <c r="T15" t="n">
-        <v>67.52246065361244</v>
+        <v>70.00001637106672</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[50.78971270677772, 84.25520860044716]</t>
+          <t>[53.23872170270542, 86.76131103942802]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.249322950120813e-10</v>
+        <v>8.748313184980816e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.249322950120813e-10</v>
+        <v>8.748313184980816e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>3.20612612612619</v>
+        <v>1.944144144144179</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3562362362362412</v>
+        <v>-0.3489489489489572</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.056016016016138</v>
+        <v>4.237237237237315</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>7.026786863706391e-06</v>
+        <v>0.0001940700969260689</v>
       </c>
       <c r="I16" t="n">
-        <v>7.026786863706391e-06</v>
+        <v>0.0001940700969260689</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>46.78526827762943</v>
+        <v>47.27681986065285</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[23.13987526016686, 70.430661295092]</t>
+          <t>[18.4012508730238, 76.1523888482819]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.000244295459305599</v>
+        <v>0.001909893417809894</v>
       </c>
       <c r="O16" t="n">
-        <v>0.000244295459305599</v>
+        <v>0.001909893417809894</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-0.7170001251436169</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.484316048542925, -0.4780000834290776]</t>
+          <t>[-1.2956318050840787, -0.13836844520315505]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0002920680295459555</v>
+        <v>0.01630266950170522</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0002920680295459555</v>
+        <v>0.01630266950170522</v>
       </c>
       <c r="T16" t="n">
-        <v>44.06701736748073</v>
+        <v>69.21914351725862</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[31.8705926702332, 56.26344206472826]</t>
+          <t>[54.38620476205574, 84.05208227246149]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.961795558282688e-09</v>
+        <v>3.494093903100293e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>3.961795558282688e-09</v>
+        <v>3.494093903100293e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>3.969489489489572</v>
+        <v>2.841441441441493</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.933853853853894</v>
+        <v>0.5483483483483602</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.00512512512525</v>
+        <v>5.134534534534625</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.42000000000053</v>
+        <v>24.90000000000045</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.699402691708208e-06</v>
+        <v>0.05178295414090817</v>
       </c>
       <c r="I17" t="n">
-        <v>2.699402691708208e-06</v>
+        <v>0.05178295414090817</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>65.52993208577121</v>
+        <v>28.09321947770361</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[39.758615203455875, 91.30124896808654]</t>
+          <t>[-1.3352377501425465, 57.52167670554977]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>6.13481226685586e-06</v>
+        <v>0.06085836308314829</v>
       </c>
       <c r="O17" t="n">
-        <v>6.13481226685586e-06</v>
+        <v>0.06085836308314829</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.9497371824080796, -0.9434212172942322]</t>
+          <t>[-2.8176847023187737, 0.17610529389492413]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>0.08230296162401141</v>
       </c>
       <c r="S17" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>0.08230296162401141</v>
       </c>
       <c r="T17" t="n">
-        <v>76.20501564323395</v>
+        <v>56.19581600224022</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[59.8522376583445, 92.55779362812339]</t>
+          <t>[39.98561313675299, 72.40601886772745]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.644418100634539e-12</v>
+        <v>1.082546940978091e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>3.644418100634539e-12</v>
+        <v>1.082546940978091e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>5.852452452452575</v>
+        <v>5.234234234234329</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.816816816816897</v>
+        <v>-0.6978978978979136</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.888088088088253</v>
+        <v>11.16636636636657</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_5_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_5_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9.502549381001923e-05</v>
+        <v>7.514435880984216e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>9.502549381001923e-05</v>
+        <v>7.514435880984216e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.44967580359733</v>
+        <v>47.32141290045693</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[25.261846950842013, 73.63750465635265]</t>
+          <t>[25.538716138876595, 69.10410966203727]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001614438271662078</v>
+        <v>7.112236121065152e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001614438271662078</v>
+        <v>7.112236121065152e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.452868674633118</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 2.0692372032653497]</t>
+          <t>[1.3899739268135018, 2.4214477910551953]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.121576289471072e-05</v>
+        <v>2.260512221852196e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>2.121576289471072e-05</v>
+        <v>2.260512221852196e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>58.97083940846013</v>
+        <v>69.15047076980152</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.1867568438078, 73.75492197311246]</t>
+          <t>[56.96578311060291, 81.33515842900012]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.07740055660588e-10</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>3.07740055660588e-10</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>18.6503303303306</v>
+        <v>16.98546546546573</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.27047047047071</v>
+        <v>14.98430430430454</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.0301901901905</v>
+        <v>18.98662662662692</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003709944738650162</v>
+        <v>0.003809713168178686</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003709944738650162</v>
+        <v>0.003809713168178686</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.78435077204544</v>
+        <v>39.56164350856812</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[20.631214518838874, 68.937487025252]</t>
+          <t>[13.53040892999924, 65.59287808713701]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0005270479758505697</v>
+        <v>0.003713407737414354</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0005270479758505697</v>
+        <v>0.003713407737414354</v>
       </c>
       <c r="P3" t="n">
-        <v>1.515763422452733</v>
+        <v>1.478026573760963</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 2.207605648468503]</t>
+          <t>[0.622658003414192, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.310075822080208e-05</v>
+        <v>0.001124893385533676</v>
       </c>
       <c r="S3" t="n">
-        <v>6.310075822080208e-05</v>
+        <v>0.001124893385533676</v>
       </c>
       <c r="T3" t="n">
-        <v>64.38872037673931</v>
+        <v>70.36136956839199</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.654334984275664, 79.12310576920297]</t>
+          <t>[54.42093656022962, 86.30180257655437]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.420885714116139e-11</v>
+        <v>1.811439886978405e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.420885714116139e-11</v>
+        <v>1.811439886978405e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.40748748748776</v>
+        <v>18.64496496496525</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.73621621621645</v>
+        <v>15.3259659659662</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.07875875875907</v>
+        <v>21.96396396396431</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.048858314534051e-06</v>
+        <v>1.885904691378837e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.048858314534051e-06</v>
+        <v>1.885904691378837e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>54.10733470928297</v>
+        <v>56.71737061479306</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[34.68240582222738, 73.53226359633855]</t>
+          <t>[28.629375520157623, 84.8053657094285]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.178987408589904e-06</v>
+        <v>0.0001892337736295602</v>
       </c>
       <c r="O4" t="n">
-        <v>1.178987408589904e-06</v>
+        <v>0.0001892337736295602</v>
       </c>
       <c r="P4" t="n">
-        <v>1.478026573760964</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.8931319093704255]</t>
+          <t>[0.5849211547224229, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.678526981967025e-09</v>
+        <v>0.0001276212228451534</v>
       </c>
       <c r="S4" t="n">
-        <v>5.678526981967025e-09</v>
+        <v>0.0001276212228451534</v>
       </c>
       <c r="T4" t="n">
-        <v>54.25516397074079</v>
+        <v>60.08113092633968</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.69495171515213, 66.81537622632945]</t>
+          <t>[44.761831651769526, 75.40043020090982]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.375899559898698e-11</v>
+        <v>4.834830313882321e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>3.375899559898698e-11</v>
+        <v>4.834830313882321e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>18.55319319319347</v>
+        <v>20.01161161161192</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.95043043043068</v>
+        <v>17.91283283283311</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.15595595595625</v>
+        <v>22.11039039039073</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008197987423258724</v>
+        <v>0.072513285450448</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008197987423258724</v>
+        <v>0.072513285450448</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>35.49047396857922</v>
+        <v>25.79592010269772</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[6.147198716215627, 64.83374922094282]</t>
+          <t>[0.16222953233892667, 51.429610673056516]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01887144999595969</v>
+        <v>0.04862739438294272</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01887144999595969</v>
+        <v>0.04862739438294272</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9371317425122703</v>
+        <v>1.478026573760963</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 1.6918687163476553]</t>
+          <t>[0.05660527303765317, 2.899447874484273]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01609831030322173</v>
+        <v>0.04189486756958316</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01609831030322173</v>
+        <v>0.04189486756958316</v>
       </c>
       <c r="T5" t="n">
-        <v>56.63082733280552</v>
+        <v>55.60661229227996</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.199958088927005, 72.06169657668404]</t>
+          <t>[39.92174184564186, 71.29148273891806]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.684527489194011e-09</v>
+        <v>6.310171274392928e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>2.684527489194011e-09</v>
+        <v>6.310171274392928e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>20.64164164164194</v>
+        <v>18.64496496496525</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.72752752752779</v>
+        <v>13.12956956956977</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.5557557557561</v>
+        <v>24.16036036036073</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001947763639074118</v>
+        <v>1.827889102523628e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001947763639074118</v>
+        <v>1.827889102523628e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.27885395111161</v>
+        <v>57.81803387079007</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.92257619872592, 75.63513170349731]</t>
+          <t>[33.54269422974079, 82.09337351183936]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.000903637197666729</v>
+        <v>1.801990748573346e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.000903637197666729</v>
+        <v>1.801990748573346e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.226447582482503</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 1.8679740102425813]</t>
+          <t>[0.8113422468730391, 1.7925003128590422]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0003701804920763774</v>
+        <v>2.892330376980112e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0003701804920763774</v>
+        <v>2.892330376980112e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>57.78823940228828</v>
+        <v>68.61297557536304</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.660139647584245, 72.91633915699232]</t>
+          <t>[54.80176918357414, 82.42418196715194]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>9.656149213554954e-10</v>
+        <v>5.10480546722647e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>9.656149213554954e-10</v>
+        <v>5.10480546722647e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>19.52456456456485</v>
+        <v>19.32828828828858</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.04756756756781</v>
+        <v>17.42474474474501</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.00156156156189</v>
+        <v>21.23183183183216</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.112068375808128e-05</v>
+        <v>0.007940753151501001</v>
       </c>
       <c r="I7" t="n">
-        <v>1.112068375808128e-05</v>
+        <v>0.007940753151501001</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>64.22378977144359</v>
+        <v>36.58593949047643</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.20854536872244, 97.23903417416474]</t>
+          <t>[7.275587796125905, 65.89629118482695]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0003007755012762736</v>
+        <v>0.01558054281449106</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0003007755012762736</v>
+        <v>0.01558054281449106</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.4465527095192705</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.3019212798660407]</t>
+          <t>[-0.4025263860455386, 1.2956318050840796]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0007438398190278139</v>
+        <v>0.2951300419861733</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0007438398190278139</v>
+        <v>0.2951300419861733</v>
       </c>
       <c r="T7" t="n">
-        <v>70.638160814461</v>
+        <v>61.56791683836056</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[53.87653023682674, 87.39979139209527]</t>
+          <t>[45.816330768916885, 77.31950290780424]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.791345263934545e-11</v>
+        <v>5.288209870002447e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>6.791345263934545e-11</v>
+        <v>5.288209870002447e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>21.0301901901905</v>
+        <v>22.64728728728763</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.23315315315343</v>
+        <v>19.35269269269299</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.82722722722756</v>
+        <v>25.94188188188228</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.638848031010781e-06</v>
+        <v>1.516214988517284e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>7.638848031010781e-06</v>
+        <v>1.516214988517284e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.88703151547158</v>
+        <v>52.88277990830244</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[29.174185219967967, 80.59987781097519]</t>
+          <t>[25.62450963642931, 80.14105018017557]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>9.076624666870536e-05</v>
+        <v>0.0003106778619721418</v>
       </c>
       <c r="O8" t="n">
-        <v>9.076624666870536e-05</v>
+        <v>0.0003106778619721418</v>
       </c>
       <c r="P8" t="n">
-        <v>1.163552834662886</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 1.6918687163476545]</t>
+          <t>[0.39623691126357663, 1.3522370781217337]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.857312115842284e-05</v>
+        <v>0.0006144356549904195</v>
       </c>
       <c r="S8" t="n">
-        <v>5.857312115842284e-05</v>
+        <v>0.0006144356549904195</v>
       </c>
       <c r="T8" t="n">
-        <v>62.62233834377223</v>
+        <v>59.93680741965143</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.54627044175889, 76.69840624578556]</t>
+          <t>[45.879692268493386, 73.99392257080947]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.441113894884438e-11</v>
+        <v>4.886091531375314e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.441113894884438e-11</v>
+        <v>4.886091531375314e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>19.7674074074077</v>
+        <v>20.98778778778811</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.72752752752779</v>
+        <v>19.13305305305334</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.8072872872876</v>
+        <v>22.84252252252287</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.387722878194332e-06</v>
+        <v>0.000130965776428793</v>
       </c>
       <c r="I9" t="n">
-        <v>2.387722878194332e-06</v>
+        <v>0.000130965776428793</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.09817278856205</v>
+        <v>47.22009222668679</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.23159967717055, 71.96474589995356]</t>
+          <t>[19.461865943450178, 74.9783185099234]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.280605427891103e-05</v>
+        <v>0.001317380193483819</v>
       </c>
       <c r="O9" t="n">
-        <v>3.280605427891103e-05</v>
+        <v>0.001317380193483819</v>
       </c>
       <c r="P9" t="n">
-        <v>1.201289683354656</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.723289599925578, 1.6792897667837332]</t>
+          <t>[0.47171060864711567, 1.628973968528041]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.487123534710705e-06</v>
+        <v>0.0006676680282826641</v>
       </c>
       <c r="S9" t="n">
-        <v>7.487123534710705e-06</v>
+        <v>0.0006676680282826641</v>
       </c>
       <c r="T9" t="n">
-        <v>52.51386938004909</v>
+        <v>62.35608109551374</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.42060809669914, 64.60713066339903]</t>
+          <t>[47.976127725816, 76.73603446521149]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.903610685223157e-11</v>
+        <v>3.022759820225929e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.903610685223157e-11</v>
+        <v>3.022759820225929e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>19.62170170170199</v>
+        <v>20.30446446446478</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.77609609609635</v>
+        <v>18.05925925925953</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.46730730730762</v>
+        <v>22.54966966967002</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.26000000000035</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04841053688166663</v>
+        <v>0.0006404435897712224</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04841053688166663</v>
+        <v>0.0006404435897712224</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>31.74150547573841</v>
+        <v>57.23845780105852</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.8480269990511573, 65.33103795052799]</t>
+          <t>[19.210478655810547, 95.26643694630648]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.06341088612083468</v>
+        <v>0.004026401329979556</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06341088612083468</v>
+        <v>0.004026401329979556</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9622896416401163</v>
+        <v>0.9497106920761942</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.88681594425658, 2.8113952275368126]</t>
+          <t>[0.34592111300788453, 1.5535002711445038]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3001639522840367</v>
+        <v>0.002757308750271026</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3001639522840367</v>
+        <v>0.002757308750271026</v>
       </c>
       <c r="T10" t="n">
-        <v>65.53524395229536</v>
+        <v>80.85767782757095</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.79175658042195, 83.27873132416877]</t>
+          <t>[61.29904007738382, 100.41631557775808]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.285988509598269e-09</v>
+        <v>1.159579099407892e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>2.285988509598269e-09</v>
+        <v>1.159579099407892e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>20.5445045045048</v>
+        <v>20.69493493493525</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.40492492492512</v>
+        <v>18.35211211211238</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.68408408408449</v>
+        <v>23.03775775775811</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.659487636444638e-05</v>
+        <v>0.01795279290742946</v>
       </c>
       <c r="I11" t="n">
-        <v>5.659487636444638e-05</v>
+        <v>0.01795279290742946</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>55.91983888581004</v>
+        <v>36.08953115134246</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[26.61309931329555, 85.22657845832452]</t>
+          <t>[4.5735805874467275, 67.6054817152382]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0003786762779709463</v>
+        <v>0.02574943921635775</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0003786762779709463</v>
+        <v>0.02574943921635775</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.4339737599553475</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.19497371824080645, 0.9371317425122694]</t>
+          <t>[-0.7170001251436169, 1.5849476450543118]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1933925288444793</v>
+        <v>0.4515637504538716</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1933925288444793</v>
+        <v>0.4515637504538716</v>
       </c>
       <c r="T11" t="n">
-        <v>74.49006393393441</v>
+        <v>66.14551725930646</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[58.708009376704595, 90.27211849116422]</t>
+          <t>[49.20657891983412, 83.08445559877879]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.477795746358424e-12</v>
+        <v>5.423892446287937e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>2.477795746358424e-12</v>
+        <v>5.423892446287937e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>23.42942942942986</v>
+        <v>23.40360360360406</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.18618618618658</v>
+        <v>18.79837837837874</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.67267267267313</v>
+        <v>28.00882882882938</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01150111653962393</v>
+        <v>7.655834477038326e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01150111653962393</v>
+        <v>7.655834477038326e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>33.54603227368688</v>
+        <v>55.26847845882937</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[8.097502525430038, 58.994562021943715]</t>
+          <t>[27.818286964003946, 82.7186699536548]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.01092811149649742</v>
+        <v>0.0001963595893246239</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01092811149649742</v>
+        <v>0.0001963595893246239</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1069210712933453</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, 1.1321054607530767]</t>
+          <t>[0.09434212172942225, 1.0755001877154253]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.8345691563212703</v>
+        <v>0.02052335072857048</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8345691563212703</v>
+        <v>0.02052335072857048</v>
       </c>
       <c r="T12" t="n">
-        <v>58.79426765736102</v>
+        <v>62.18468510435118</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.883342008502424, 73.70519330621961]</t>
+          <t>[48.28561088732624, 76.08375932137612]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.191689217947214e-10</v>
+        <v>1.222066892125895e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>4.191689217947214e-10</v>
+        <v>1.222066892125895e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>24.47627627627672</v>
+        <v>22.79963963964008</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.41351351351389</v>
+        <v>20.83675675675716</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.53903903903956</v>
+        <v>24.76252252252301</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.154212502563201e-05</v>
+        <v>0.0003784711054071188</v>
       </c>
       <c r="I13" t="n">
-        <v>1.154212502563201e-05</v>
+        <v>0.0003784711054071188</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>55.66605941734916</v>
+        <v>54.18546519570918</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[31.798229201588086, 79.53388963311023]</t>
+          <t>[21.68889795602611, 86.68203243539226]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.50106439618758e-05</v>
+        <v>0.001603959581073955</v>
       </c>
       <c r="O13" t="n">
-        <v>2.50106439618758e-05</v>
+        <v>0.001603959581073955</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1006315965113851</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 0.4025263860455386]</t>
+          <t>[-1.0440528138056173, 0.23900004171454015]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6889875392040841</v>
+        <v>0.2128270288674685</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6889875392040841</v>
+        <v>0.2128270288674685</v>
       </c>
       <c r="T13" t="n">
-        <v>72.48239657351826</v>
+        <v>75.89109580716254</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[58.141056595832026, 86.82373655120449]</t>
+          <t>[58.25378065696009, 93.528410957365]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.968736367847669e-13</v>
+        <v>3.771249978967717e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.968736367847669e-13</v>
+        <v>3.771249978967717e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3987987987988078</v>
+        <v>1.610570570570601</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.595195195195222</v>
+        <v>-0.9562762762762991</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.392792792792838</v>
+        <v>4.177417417417502</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>6.08766158927132e-07</v>
+        <v>1.765109500284634e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>6.08766158927132e-07</v>
+        <v>1.765109500284634e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>68.3531049648426</v>
+        <v>56.34844105281735</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[41.807354560633385, 94.89885536905182]</t>
+          <t>[32.92168669575065, 79.77519540988405]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.937538427229882e-06</v>
+        <v>1.540873297445344e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>4.937538427229882e-06</v>
+        <v>1.540873297445344e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2767368904063083</v>
+        <v>0.06918422260157708</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7170001251436169, 0.16352634433100022]</t>
+          <t>[-0.44026323473730855, 0.5786316799404627]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2120252954992954</v>
+        <v>0.7857048679170835</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2120252954992954</v>
+        <v>0.7857048679170835</v>
       </c>
       <c r="T14" t="n">
-        <v>71.99222414158639</v>
+        <v>60.89435151644405</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[56.78846071652476, 87.19598756664803]</t>
+          <t>[46.129999192116586, 75.65870384077152]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.246647312631467e-12</v>
+        <v>1.237330238268441e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>2.246647312631467e-12</v>
+        <v>1.237330238268441e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>1.096696696696718</v>
+        <v>24.86318318318367</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.6480480480480595</v>
+        <v>22.82480480480525</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.841441441441495</v>
+        <v>26.90156156156209</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.970160696837755e-05</v>
+        <v>1.835440912811848e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>4.970160696837755e-05</v>
+        <v>1.835440912811848e-06</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>58.96538134798764</v>
+        <v>57.20817808692229</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[27.875464854672117, 90.05529784130316]</t>
+          <t>[30.600633894410805, 83.81572227943377]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0004064326795027995</v>
+        <v>8.216766717694668e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0004064326795027995</v>
+        <v>8.216766717694668e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.4905790329930007</v>
+        <v>-0.754736973835386</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, 0.08805264694746207]</t>
+          <t>[-1.1950002085726936, -0.3144737390980783]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.09460028812555188</v>
+        <v>0.001219271107524955</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09460028812555188</v>
+        <v>0.001219271107524955</v>
       </c>
       <c r="T15" t="n">
-        <v>70.00001637106672</v>
+        <v>65.20369961281705</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[53.23872170270542, 86.76131103942802]</t>
+          <t>[51.48776365416032, 78.91963557147378]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.748313184980816e-11</v>
+        <v>1.992406239992306e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>8.748313184980816e-11</v>
+        <v>1.992406239992306e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>1.944144144144179</v>
+        <v>3.01981981981988</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.3489489489489572</v>
+        <v>1.258258258258286</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.237237237237315</v>
+        <v>4.781381381381473</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001940700969260689</v>
+        <v>0.004117585961793457</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001940700969260689</v>
+        <v>0.004117585961793457</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>47.27681986065285</v>
+        <v>41.27794675346316</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[18.4012508730238, 76.1523888482819]</t>
+          <t>[9.09912304044174, 73.45677046648457]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.001909893417809894</v>
+        <v>0.01309552690622318</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001909893417809894</v>
+        <v>0.01309552690622318</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.7170001251436169</v>
+        <v>-0.6918422260157699</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.2956318050840787, -0.13836844520315505]</t>
+          <t>[-1.3962634015954638, 0.012578949563923914]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.01630266950170522</v>
+        <v>0.05405531009575681</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01630266950170522</v>
+        <v>0.05405531009575681</v>
       </c>
       <c r="T16" t="n">
-        <v>69.21914351725862</v>
+        <v>78.05564840372648</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[54.38620476205574, 84.05208227246149]</t>
+          <t>[61.28368099556181, 94.82761581189115]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.494093903100293e-12</v>
+        <v>3.791633673699835e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>3.494093903100293e-12</v>
+        <v>3.791633673699835e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>2.841441441441493</v>
+        <v>2.76816816816822</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5483483483483602</v>
+        <v>-0.05033033033033574</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.134534534534625</v>
+        <v>5.586666666666776</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.90000000000045</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05178295414090817</v>
+        <v>0.01083458317370845</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05178295414090817</v>
+        <v>0.01083458317370845</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>28.09321947770361</v>
+        <v>32.92713126498251</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-1.3352377501425465, 57.52167670554977]</t>
+          <t>[6.194138932240804, 59.66012359772421]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.06085836308314829</v>
+        <v>0.01691468653818151</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06085836308314829</v>
+        <v>0.01691468653818151</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.320789704211925</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-2.8176847023187737, 0.17610529389492413]</t>
+          <t>[-2.490632013656773, -0.30189478953415483]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.08230296162401141</v>
+        <v>0.01356128764824072</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08230296162401141</v>
+        <v>0.01356128764824072</v>
       </c>
       <c r="T17" t="n">
-        <v>56.19581600224022</v>
+        <v>49.63315096421064</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[39.98561313675299, 72.40601886772745]</t>
+          <t>[34.44816880443494, 64.81813312398633]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.082546940978091e-08</v>
+        <v>4.239131623506864e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.082546940978091e-08</v>
+        <v>4.239131623506864e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>5.234234234234329</v>
+        <v>5.586666666666776</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.6978978978979136</v>
+        <v>1.207927927927954</v>
       </c>
       <c r="Z17" t="n">
-        <v>11.16636636636657</v>
+        <v>9.965405405405598</v>
       </c>
     </row>
   </sheetData>
